--- a/Training images/SPIE Database description.xlsx
+++ b/Training images/SPIE Database description.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\BMEN689-Group 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nianc\OneDrive\桌面\Project\Training images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0D2912-E5BE-4979-B34D-9736034545FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32F0FFD-FD20-4299-A3D1-9216AD70240F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13245" yWindow="1260" windowWidth="11625" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="1" r:id="rId1"/>
@@ -145,15 +145,6 @@
     <t>51 x 51</t>
   </si>
   <si>
-    <t>(353, 299)</t>
-  </si>
-  <si>
-    <t>(69, 302)</t>
-  </si>
-  <si>
-    <t>(125, 277)</t>
-  </si>
-  <si>
     <t>(418, 246)</t>
   </si>
   <si>
@@ -163,9 +154,6 @@
     <t>(96, 313)</t>
   </si>
   <si>
-    <t>(116, 336)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(93, 301) </t>
   </si>
   <si>
@@ -176,6 +164,18 @@
   </si>
   <si>
     <t>51 X51</t>
+  </si>
+  <si>
+    <t>(130, 336)</t>
+  </si>
+  <si>
+    <t>(333, 299)</t>
+  </si>
+  <si>
+    <t>(77, 302)</t>
+  </si>
+  <si>
+    <t>(129, 277)</t>
   </si>
 </sst>
 </file>
@@ -665,21 +665,21 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="13" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="8.7265625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" customWidth="1"/>
-    <col min="11" max="11" width="17.54296875" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>15</v>
       </c>
@@ -689,7 +689,7 @@
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -715,7 +715,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -741,13 +741,13 @@
         <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
@@ -767,7 +767,7 @@
         <v>57</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>36</v>
@@ -780,7 +780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
@@ -800,7 +800,7 @@
         <v>32</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>36</v>
@@ -815,7 +815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>7</v>
       </c>
@@ -835,7 +835,7 @@
         <v>161</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>36</v>
@@ -848,7 +848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
@@ -868,7 +868,7 @@
         <v>37</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H7" s="17" t="s">
         <v>36</v>
@@ -883,7 +883,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -909,7 +909,7 @@
         <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
         <v>36</v>
@@ -922,7 +922,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -948,10 +948,10 @@
         <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L9" s="23"/>
       <c r="M9" s="9" t="s">
@@ -962,7 +962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
@@ -982,13 +982,13 @@
         <v>283</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H10" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>13</v>
       </c>
@@ -1008,13 +1008,13 @@
         <v>152</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>14</v>
       </c>
@@ -1034,13 +1034,13 @@
         <v>16</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H12" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>15</v>
       </c>
@@ -1050,7 +1050,7 @@
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K20" s="22" t="s">
         <v>15</v>
       </c>
@@ -1138,7 +1138,7 @@
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
     </row>
-    <row r="21" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="K21" s="4" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K22" s="7" t="s">
         <v>6</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K24" s="2" t="s">
         <v>11</v>
       </c>
@@ -1215,7 +1215,7 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
